--- a/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND1/cond1_loc9_processed.xlsx
+++ b/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND1/cond1_loc9_processed.xlsx
@@ -368,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B271"/>
+  <dimension ref="A1:B396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0001410000000010569</v>
+        <v>0.0001249999999997087</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -392,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0001490000000003988</v>
+        <v>0.0001370000000000537</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -400,7 +400,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.299999999967667E-05</v>
+        <v>0.0001169999999999227</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -408,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.002724999999999866</v>
+        <v>0.03507999999999978</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -416,7 +416,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.007201999999999487</v>
+        <v>0.0003580000000003025</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -424,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.600000000098419E-05</v>
+        <v>0.0001279999999996839</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.002062999999999704</v>
+        <v>0.0236670000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.001783999999998898</v>
+        <v>0.008303999999999867</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -448,7 +448,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.299999999903605E-05</v>
+        <v>0.0001450000000002838</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -456,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.002029999999999532</v>
+        <v>0.03328599999999993</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -464,7 +464,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0001430000000013365</v>
+        <v>0.000144000000000144</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07136499999999835</v>
+        <v>0.02636100000000008</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -480,7 +480,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.005088000000000648</v>
+        <v>0.005029999999999646</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -488,7 +488,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.004046999999999912</v>
+        <v>0.03404700000000016</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -496,7 +496,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7619980000000002</v>
+        <v>1.449958000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -504,7 +504,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.06435600000000008</v>
+        <v>0.08941500000000069</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.03116900000000022</v>
+        <v>0.1964970000000008</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -520,7 +520,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1320180000000004</v>
+        <v>0.04445999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -528,7 +528,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.05453299999999928</v>
+        <v>0.1345050000000008</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -536,7 +536,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1239080000000001</v>
+        <v>0.08916000000000057</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -544,7 +544,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1160339999999991</v>
+        <v>0.08940999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -552,7 +552,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.08462100000000028</v>
+        <v>0.04461799999999982</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -560,7 +560,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.03199799999999975</v>
+        <v>0.04448499999999989</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -568,7 +568,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1664740000000009</v>
+        <v>0.04441299999999959</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -576,7 +576,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.2186629999999994</v>
+        <v>0.08928100000000061</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -584,7 +584,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.1184729999999998</v>
+        <v>0.04436100000000032</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -592,7 +592,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1714849999999988</v>
+        <v>0.04348200000000002</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -600,7 +600,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1700169999999996</v>
+        <v>0.08946100000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -608,7 +608,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.05702500000000121</v>
+        <v>0.0444469999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -616,7 +616,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.04449800000000081</v>
+        <v>0.04434499999999986</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -624,7 +624,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1016529999999989</v>
+        <v>0.04464500000000005</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -632,7 +632,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.05317900000000009</v>
+        <v>0.04443299999999972</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -640,7 +640,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.2207489999999996</v>
+        <v>0.04467299999999952</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -648,7 +648,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.08953100000000092</v>
+        <v>0.04446299999999948</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -656,7 +656,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.225187</v>
+        <v>0.08965399999999946</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -664,7 +664,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.01303700000000063</v>
+        <v>0.126525</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -672,7 +672,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.05017199999999988</v>
+        <v>0.04458900000000021</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -680,7 +680,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1141690000000004</v>
+        <v>0.04445699999999952</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -688,7 +688,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.04900199999999977</v>
+        <v>0.04432599999999987</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -696,7 +696,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.01983800000000002</v>
+        <v>0.08971099999999943</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -704,7 +704,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.06826099999999968</v>
+        <v>0.04466099999999962</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -712,7 +712,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.03994499999999945</v>
+        <v>0.04454600000000042</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -720,7 +720,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.08001299999999922</v>
+        <v>0.04432100000000005</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -728,7 +728,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1362140000000007</v>
+        <v>0.04456099999999985</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -736,7 +736,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.02091000000000065</v>
+        <v>0.08930499999999952</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -744,7 +744,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.07401899999999983</v>
+        <v>0.2693900000000014</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -752,7 +752,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.01190000000000069</v>
+        <v>0.08964900000000142</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -760,7 +760,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.2457150000000006</v>
+        <v>0.04429100000000119</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -768,7 +768,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.1109590000000011</v>
+        <v>0.04448900000000044</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -776,7 +776,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.05001600000000295</v>
+        <v>0.04446599999999989</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -784,7 +784,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.07016499999999937</v>
+        <v>0.04432199999999931</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -792,7 +792,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1750110000000014</v>
+        <v>0.04445099999999869</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -800,7 +800,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1319979999999994</v>
+        <v>0.04449999999999932</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -808,7 +808,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.08237499999999898</v>
+        <v>0.04437400000000125</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -816,7 +816,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.01817499999999939</v>
+        <v>0.1346510000000016</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -824,7 +824,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.04104699999999895</v>
+        <v>0.0893739999999994</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -832,7 +832,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.07006299999999754</v>
+        <v>0.04409099999999988</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -840,7 +840,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0130359999999996</v>
+        <v>0.3147190000000002</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -848,7 +848,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.05213399999999879</v>
+        <v>0.2248010000000011</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -856,7 +856,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.05919100000000199</v>
+        <v>0.1795259999999992</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -864,7 +864,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.06201399999999779</v>
+        <v>9.999999999976694E-05</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -872,7 +872,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.0445859999999989</v>
+        <v>0.08948700000000009</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -880,7 +880,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.04469100000000026</v>
+        <v>0.08940600000000032</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -888,7 +888,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.04440500000000114</v>
+        <v>0.04434299999999958</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -896,7 +896,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.01299099999999953</v>
+        <v>0.04481400000000058</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -904,7 +904,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1229840000000024</v>
+        <v>0.04455300000000051</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -912,7 +912,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.06989099999999837</v>
+        <v>0.04454199999999986</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -920,7 +920,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.06201199999999929</v>
+        <v>0.04471600000000109</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -928,7 +928,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.04787400000000019</v>
+        <v>0.04453399999999874</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -936,7 +936,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.08310900000000032</v>
+        <v>0.08985299999999974</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -944,7 +944,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1147899999999993</v>
+        <v>0.08932899999999933</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -952,7 +952,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.08576099999999798</v>
+        <v>0.02784499999999923</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -960,7 +960,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.1240360000000003</v>
+        <v>0.1343650000000007</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -968,7 +968,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.1240070000000024</v>
+        <v>0.134309</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -976,7 +976,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.1307620000000007</v>
+        <v>0.1797540000000009</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -984,7 +984,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.04491600000000062</v>
+        <v>0.179549999999999</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -992,7 +992,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.03998900000000205</v>
+        <v>0.3145570000000006</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.01103800000000277</v>
+        <v>0.089499</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.04452300000000164</v>
+        <v>0.1347459999999998</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.02330299999999852</v>
+        <v>0.04448299999999961</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0240639999999992</v>
+        <v>0.1347519999999989</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0895229999999998</v>
+        <v>3.564793000000002</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.1909840000000003</v>
+        <v>0.0001169999999994786</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.08079700000000045</v>
+        <v>6.899999999987472E-05</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.08323199999999886</v>
+        <v>0.01021300000000025</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.04702500000000143</v>
+        <v>0.002293000000001655</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.04495000000000005</v>
+        <v>0.0001320000000006871</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.05312800000000095</v>
+        <v>0.02452900000000113</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.02600100000000083</v>
+        <v>0.0001420000000003085</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.05298000000000158</v>
+        <v>9.299999999967667E-05</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.1246609999999997</v>
+        <v>0.03723999999999705</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.02802099999999896</v>
+        <v>0.0001369999999987215</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.06903499999999951</v>
+        <v>0.02747600000000006</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1658390000000018</v>
+        <v>0.005064999999998321</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.09326000000000079</v>
+        <v>0.08036300000000196</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.05601899999999915</v>
+        <v>1.752001</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.1246699999999983</v>
+        <v>0.1794650000000004</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.03720399999999913</v>
+        <v>0.06585700000000116</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.2941129999999994</v>
+        <v>0.04470400000000296</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.06985699999999895</v>
+        <v>0.0444550000000028</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.04486999999999952</v>
+        <v>0.04459500000000105</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0292020000000015</v>
+        <v>0.04449299999999923</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.07322800000000029</v>
+        <v>0.1348870000000026</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.0982270000000014</v>
+        <v>0.08987199999999973</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.06112800000000007</v>
+        <v>0.04467800000000111</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.07297399999999854</v>
+        <v>0.04500600000000077</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.06553300000000206</v>
+        <v>0.04465099999999822</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.01516400000000218</v>
+        <v>0.04469999999999885</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.04684599999999861</v>
+        <v>0.08958799999999911</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.03803600000000174</v>
+        <v>0.1347909999999999</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.09217599999999848</v>
+        <v>0.04467799999999755</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.09107500000000002</v>
+        <v>0.04439299999999946</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.04917799999999772</v>
+        <v>0.04472300000000118</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0371680000000012</v>
+        <v>0.04471399999999903</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.06220300000000023</v>
+        <v>0.01618999999999815</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.01817699999999789</v>
+        <v>0.08971299999999971</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0220249999999993</v>
+        <v>0.1787729999999996</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.03618599999999716</v>
+        <v>0.08992200000000139</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.0447330000000008</v>
+        <v>0.1346999999999987</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.0530009999999983</v>
+        <v>0.0445379999999993</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.08026100000000014</v>
+        <v>0.2497819999999997</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.1157269999999997</v>
+        <v>0.04487499999999756</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.1241790000000016</v>
+        <v>0.1795469999999995</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.03202199999999777</v>
+        <v>0.08969300000000047</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.1228680000000004</v>
+        <v>0.4049960000000006</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.05403499999999894</v>
+        <v>0.000121999999997513</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.08390299999999939</v>
+        <v>0.0001190000000050873</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.02785500000000241</v>
+        <v>0.0001379999999997494</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.01101799999999997</v>
+        <v>0.03084999999999383</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.01501200000000225</v>
+        <v>0.002339999999996678</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.006004000000000786</v>
+        <v>0.0001309999999961065</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.08815300000000192</v>
+        <v>0.01804099999999664</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.05297900000000055</v>
+        <v>0.002097999999996603</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.01006300000000238</v>
+        <v>9.399999999715192E-05</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.1119939999999993</v>
+        <v>8.100000000155205E-05</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.1322379999999974</v>
+        <v>0.004306999999997174</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.05019899999999922</v>
+        <v>0.02544599999999519</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.1070490000000035</v>
+        <v>0.00505600000000328</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.01502100000000084</v>
+        <v>0.02726099999999576</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1496,7 +1496,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.01802999999999955</v>
+        <v>1.25658</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1504,7 +1504,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.04400400000000104</v>
+        <v>0.04499900000000423</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1512,7 +1512,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.009992000000000445</v>
+        <v>0.04496200000000528</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1520,7 +1520,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.04472099999999912</v>
+        <v>0.1251940000000005</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1528,7 +1528,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.08613599999999977</v>
+        <v>0.04502300000000048</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1536,7 +1536,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.1192320000000002</v>
+        <v>0.1346339999999984</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1544,7 +1544,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.08401800000000037</v>
+        <v>0.04486400000000401</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1552,7 +1552,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.07001400000000046</v>
+        <v>0.04488300000000578</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1560,7 +1560,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.06702399999999997</v>
+        <v>0.04508299999999821</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1568,7 +1568,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.166202000000002</v>
+        <v>0.0898910000000015</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1576,7 +1576,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.003042999999998131</v>
+        <v>0.1168590000000052</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1584,7 +1584,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.06417800000000184</v>
+        <v>0.1348819999999975</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1592,7 +1592,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.08219199999999915</v>
+        <v>0.17971</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1600,7 +1600,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.07916699999999821</v>
+        <v>0.04488500000000073</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1608,7 +1608,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.0611419999999967</v>
+        <v>0.2248639999999966</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1616,7 +1616,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.07895100000000355</v>
+        <v>0.08972899999999839</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1624,7 +1624,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.06285700000000105</v>
+        <v>0.08989199999999897</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1632,7 +1632,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.06222899999999498</v>
+        <v>0.1349799999999988</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1640,7 +1640,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.02104500000000087</v>
+        <v>0.2700679999999949</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1648,7 +1648,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.1291750000000036</v>
+        <v>0.04512000000000427</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1656,7 +1656,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.01207300000000089</v>
+        <v>0.08969000000000449</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1664,7 +1664,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.04520999999999731</v>
+        <v>0.1799050000000051</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1672,7 +1672,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.0670159999999953</v>
+        <v>0.08991499999999775</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1680,7 +1680,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.02803399999999812</v>
+        <v>0.2249210000000019</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1688,7 +1688,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.1142309999999966</v>
+        <v>0.294083999999998</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1696,7 +1696,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.07984000000000435</v>
+        <v>0.08878500000000145</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1704,7 +1704,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.05800400000000394</v>
+        <v>0.1089839999999995</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1712,7 +1712,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.04493800000000192</v>
+        <v>0.1000549999999976</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1720,7 +1720,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.2353409999999982</v>
+        <v>0.04488900000000484</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1728,7 +1728,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.04524599999999879</v>
+        <v>0.1352259999999958</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1736,7 +1736,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.1309940000000012</v>
+        <v>0.09011999999999887</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1744,7 +1744,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.04507800000000373</v>
+        <v>0.04520399999999825</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1752,7 +1752,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.08616500000000116</v>
+        <v>0.0900310000000033</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1760,7 +1760,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.02299599999999913</v>
+        <v>0.04383800000000093</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1768,7 +1768,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.04414700000000238</v>
+        <v>0.07780600000000248</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1776,7 +1776,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.04819000000000528</v>
+        <v>0.04516999999999882</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1784,7 +1784,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.01499599999999646</v>
+        <v>0.045018000000006</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1792,7 +1792,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.009017999999997528</v>
+        <v>0.04503299999999655</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1800,7 +1800,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.08386600000000044</v>
+        <v>0.04499299999999806</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1808,7 +1808,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.1599750000000029</v>
+        <v>0.04504000000000019</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1816,7 +1816,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.05918299999999732</v>
+        <v>0.03507099999999497</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1824,7 +1824,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.05296600000000495</v>
+        <v>0.04502899999999954</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1832,7 +1832,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.1201290000000057</v>
+        <v>0.09001500000000107</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1840,7 +1840,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.08505399999999952</v>
+        <v>0.04512799999999828</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1848,7 +1848,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.06905900000000287</v>
+        <v>0.04514199999999846</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1856,7 +1856,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.1039029999999954</v>
+        <v>0.04485300000000336</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1864,7 +1864,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.07989200000000096</v>
+        <v>0.04490300000000502</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1872,7 +1872,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.06010900000000419</v>
+        <v>0.04483699999999402</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1880,7 +1880,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.07202900000000056</v>
+        <v>0.04517999999999489</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1888,7 +1888,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.07502000000000209</v>
+        <v>0.0451230000000038</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1896,7 +1896,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.04509299999999428</v>
+        <v>0.04534100000000052</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1904,7 +1904,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.1248269999999962</v>
+        <v>0.04479400000000311</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1912,7 +1912,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.04304099999999522</v>
+        <v>0.04518300000000153</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1920,7 +1920,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.06887099999999435</v>
+        <v>0.04499099999999601</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1928,7 +1928,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.100202000000003</v>
+        <v>0.0450090000000003</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1936,7 +1936,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.09221600000000052</v>
+        <v>0.04501799999999889</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1944,7 +1944,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.02647199999999827</v>
+        <v>0.04533399999999688</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1952,7 +1952,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.05493400000000292</v>
+        <v>0.04502700000000459</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1960,7 +1960,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.06400099999999753</v>
+        <v>0.04518900000000059</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1968,7 +1968,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.1311389999999975</v>
+        <v>0.04502499999999543</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1976,7 +1976,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.01509000000000071</v>
+        <v>0.1787850000000049</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1984,7 +1984,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.02020600000000172</v>
+        <v>0.09002799999999667</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1992,7 +1992,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.04524500000000131</v>
+        <v>0.04489099999999979</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2000,7 +2000,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.0340139999999991</v>
+        <v>0.04512100000000174</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2008,7 +2008,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.04501799999999889</v>
+        <v>0.04502999999999702</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2016,7 +2016,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.1651740000000004</v>
+        <v>0.04518099999999947</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.004027000000000669</v>
+        <v>0.1352090000000032</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2032,7 +2032,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.0249769999999998</v>
+        <v>0.04521300000000394</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2040,7 +2040,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.198008999999999</v>
+        <v>0.0451930000000047</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2048,7 +2048,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.1161149999999935</v>
+        <v>0.1348420000000061</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2056,7 +2056,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.1261769999999984</v>
+        <v>0.04512400000000127</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2064,7 +2064,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.1079770000000053</v>
+        <v>0.045022000000003</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2072,7 +2072,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.04532700000000034</v>
+        <v>0.1642130000000037</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2080,7 +2080,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.00494399999999473</v>
+        <v>0.04518099999999947</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2088,7 +2088,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.0139909999999972</v>
+        <v>0.04504699999999673</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2096,7 +2096,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.08317699999999917</v>
+        <v>0.08884900000000329</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2104,7 +2104,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.06295300000000026</v>
+        <v>0.04501499999999936</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2112,7 +2112,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.1660229999999956</v>
+        <v>0.04500000000000171</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2120,7 +2120,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.09718099999999907</v>
+        <v>0.04502499999999543</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2128,7 +2128,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.07067500000000138</v>
+        <v>0.04519200000000012</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2136,7 +2136,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.05800100000000441</v>
+        <v>0.1350189999999998</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2144,7 +2144,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.01100699999999932</v>
+        <v>0.2248780000000039</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2152,7 +2152,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.007024999999998727</v>
+        <v>0.04504599999999925</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2160,7 +2160,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.221032000000001</v>
+        <v>0.0450569999999999</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2168,7 +2168,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.1579860000000011</v>
+        <v>0.04502800000000207</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2176,7 +2176,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.1049840000000017</v>
+        <v>0.04495300000000668</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2184,7 +2184,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.05814099999999911</v>
+        <v>0.08986399999999861</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2192,7 +2192,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.09517499999999757</v>
+        <v>0.04508200000000073</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2200,7 +2200,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.2631949999999961</v>
+        <v>0.04521199999999936</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2208,7 +2208,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.1511870000000002</v>
+        <v>0.04507000000000261</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2216,7 +2216,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.232998000000002</v>
+        <v>0.04509099999999933</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2224,7 +2224,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.08417299999999983</v>
+        <v>0.04505600000000243</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2232,7 +2232,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.06922800000000251</v>
+        <v>0.0448599999999999</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2240,7 +2240,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.2301890000000029</v>
+        <v>0.04488800000000026</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2248,7 +2248,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.0298310000000015</v>
+        <v>0.04466200000000242</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2256,7 +2256,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.1110320000000016</v>
+        <v>0.04497599999999835</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2264,7 +2264,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.2162060000000068</v>
+        <v>0.04550700000000063</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2272,7 +2272,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.0862199999999973</v>
+        <v>0.04394500000000079</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2280,7 +2280,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.07317599999999658</v>
+        <v>0.04509000000000185</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2288,7 +2288,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.02722100000000438</v>
+        <v>0.04522599999999954</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2296,7 +2296,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.0820280000000011</v>
+        <v>0.04493300000000033</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2304,7 +2304,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.007966999999993618</v>
+        <v>0.04488299999999867</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2312,7 +2312,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.04499799999999965</v>
+        <v>0.04488100000000372</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2320,7 +2320,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.0483029999999971</v>
+        <v>0.04523100000000113</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2328,7 +2328,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.1250190000000018</v>
+        <v>0.04512199999999922</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2336,7 +2336,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.05119200000000035</v>
+        <v>0.04515200000000164</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2344,7 +2344,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.1302179999999993</v>
+        <v>0.04483300000000412</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2352,7 +2352,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.100081000000003</v>
+        <v>0.04490599999999745</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2360,7 +2360,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.05913900000000183</v>
+        <v>0.04488600000000531</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2368,7 +2368,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.04448000000000008</v>
+        <v>0.04510700000000156</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2376,7 +2376,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.1180390000000031</v>
+        <v>0.07223499999999916</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2384,7 +2384,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.0441110000000009</v>
+        <v>0.04389300000000418</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2392,7 +2392,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.08519299999999674</v>
+        <v>0.043883000000001</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2400,7 +2400,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.08912099999999867</v>
+        <v>0.04386900000000082</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2408,7 +2408,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.04801700000000153</v>
+        <v>0.04395799999999639</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2416,7 +2416,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.02112400000000036</v>
+        <v>0.04409100000000166</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2424,7 +2424,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.1042379999999952</v>
+        <v>0.04425200000000018</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2432,7 +2432,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.1660090000000025</v>
+        <v>0.04395600000000144</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2440,7 +2440,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.1250349999999969</v>
+        <v>0.04425600000000429</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2448,7 +2448,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.2973339999999993</v>
+        <v>0.04406600000000083</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.06618200000000485</v>
+        <v>0.04404600000000158</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2464,7 +2464,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.005451000000000761</v>
+        <v>0.04409000000000418</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2472,7 +2472,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.05900100000000208</v>
+        <v>0.04426400000000541</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2480,7 +2480,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.02400699999999745</v>
+        <v>0.04408700000000465</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.06441600000000136</v>
+        <v>0.04426499999999578</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2496,7 +2496,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.04002599999999745</v>
+        <v>0.04381899999999916</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2504,7 +2504,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.05320700000000045</v>
+        <v>0.04407499999999942</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2512,7 +2512,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.1169980000000024</v>
+        <v>0.04391600000000295</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2520,7 +2520,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.08381699999999626</v>
+        <v>0.0440630000000013</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2528,7 +2528,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.03899000000000541</v>
+        <v>0.04410700000000389</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2536,7 +2536,1007 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.07419699999999807</v>
+        <v>0.04408999999999708</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>0.04409500000000577</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>0.04390300000000025</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>0.04383099999999729</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>0.04409200000000624</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>0.04402499999999776</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>0.04376999999999498</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>0.04392199999999491</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>0.04411400000000043</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>0.04411600000000249</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>0.04412500000000108</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>0.04400599999999599</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>0.04411200000000548</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>0.04408499999999549</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>0.04411400000000043</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>0.04410200000000231</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>0.04411799999999744</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>0.08911200000000008</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>0.04394300000000584</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>0.04403099999999682</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>0.04413799999999668</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>0.04436000000000462</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>0.04394600000000537</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>0.08928600000000131</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>0.0763069999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>0.08914099999999792</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>0.04413199999999762</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>0.04431399999999996</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>0.04415600000000097</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>0.04420799999999758</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>0.04407400000000194</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>0.04412999999999556</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>0.04395499999999686</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>0.04397300000000115</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>0.04435000000000144</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>0.08938299999999799</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>0.08112300000000516</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>0.04433199999999715</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>0.04432699999999556</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>0.04411599999999538</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>0.04414899999999733</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>0.08916500000000127</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>0.04421299999999917</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>0.04454699999999434</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>0.04394599999999826</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>0.08917000000000286</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>0.0443300000000022</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>0.04417200000000321</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>0.04415699999999845</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>0.04429800000000483</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>0.04418600000000339</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>0.04416300000000462</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>0.04398299999999722</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>0.04416500000000667</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>0.04399300000000039</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>0.04417099999999863</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>0.04437699999999722</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>0.04436100000000209</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>0.04407100000000241</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>0.04406200000000382</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>0.0441810000000018</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>0.04422499999999729</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>0.04434599999999733</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>0.04419500000000198</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>0.04419400000000451</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>0.04407000000000494</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>0.04420400000000058</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>0.04401499999999459</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>0.04461400000000282</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>0.04414399999999574</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>0.04433300000000173</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>0.04409400000000119</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>0.1388359999999977</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>0.04439899999999852</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>0.04420599999999553</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>0.04390699999999725</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>0.08939399999999864</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>0.04421600000000581</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>0.04424399999999906</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>0.04419500000000198</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>0.04411999999999949</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>0.04439800000000105</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>0.04421500000000123</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>0.07822299999999416</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>0.04417800000000227</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>0.08919999999999817</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>0.04425600000000429</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>0.04423700000000252</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>0.04430199999999473</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>0.044238</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>0.04439199999999488</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>0.04424399999999906</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>0.04427799999999849</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>0.04358200000000068</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>0.04431399999999996</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>0.04423900000000458</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>0.04424699999999859</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>0.04422399999999982</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>0.04423500000000047</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>0.04442300000000188</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>0.04424499999999654</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>0.0442159999999987</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>0.0442729999999969</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>0.044628000000003</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>0.0442159999999987</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>0.03831199999999768</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>0.04410599999999931</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>0.1342150000000046</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>0.04426500000000289</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>0.04445099999999513</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>0.01883099999999871</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>0.04425599999999719</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>0.08523100000000738</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>0.04424200000001122</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>0.04425200000000018</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>0.04420100000000105</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>0.04417899999999975</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>0.04436299999998994</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>0.04444599999999355</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>0.04443700000000206</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>0.04426499999999578</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>0.04447100000000148</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>0.04399400000001208</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>0.04450899999999081</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>0.04452200000000062</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>0.04425600000000429</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07676212222222226</v>
+        <v>80.90968607594957</v>
       </c>
     </row>
   </sheetData>
@@ -2588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.007352941176470588</v>
+        <v>1.745635910224439</v>
       </c>
     </row>
   </sheetData>
